--- a/1 StatSspace/result_zen_in_col1.xlsx
+++ b/1 StatSspace/result_zen_in_col1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\parseGKSSEPR_new\для олимпиады\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\Dano\1 StatSspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48538493-4206-4FA4-BBE1-23BA715656AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>region</t>
   </si>
@@ -496,7 +495,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,29 +828,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1:BS1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="46" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="58" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="72" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="75" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="58" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="70" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="73" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,25 +1061,19 @@
         <v>62</v>
       </c>
       <c r="BR1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BS1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BT1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BU1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1269,25 +1264,19 @@
         <v>100</v>
       </c>
       <c r="BR2">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS2">
-        <v>99.9</v>
+        <v>100.4</v>
       </c>
       <c r="BT2">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BU2">
-        <v>100.4</v>
-      </c>
-      <c r="BV2">
-        <v>100.7</v>
-      </c>
-      <c r="BW2">
         <v>100.8</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1478,25 +1467,19 @@
         <v>100</v>
       </c>
       <c r="BR3">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="BS3">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="BT3">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="BU3">
-        <v>100.3</v>
-      </c>
-      <c r="BV3">
-        <v>100.5</v>
-      </c>
-      <c r="BW3">
         <v>100.6</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1690,22 +1673,16 @@
         <v>99.8</v>
       </c>
       <c r="BS4">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
       <c r="BT4">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BU4">
-        <v>100.9</v>
-      </c>
-      <c r="BV4">
-        <v>100.7</v>
-      </c>
-      <c r="BW4">
         <v>100.6</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1896,25 +1873,19 @@
         <v>99.7</v>
       </c>
       <c r="BR5">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="BS5">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BT5">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BU5">
-        <v>100.5</v>
-      </c>
-      <c r="BV5">
-        <v>100.6</v>
-      </c>
-      <c r="BW5">
         <v>101.1</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2105,25 +2076,19 @@
         <v>99.9</v>
       </c>
       <c r="BR6">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BS6">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BT6">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BU6">
-        <v>100.8</v>
-      </c>
-      <c r="BV6">
-        <v>100.8</v>
-      </c>
-      <c r="BW6">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2314,25 +2279,19 @@
         <v>100</v>
       </c>
       <c r="BR7">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS7">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BT7">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BU7">
-        <v>100.6</v>
-      </c>
-      <c r="BV7">
-        <v>100.7</v>
-      </c>
-      <c r="BW7">
         <v>100.8</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -2523,25 +2482,19 @@
         <v>100</v>
       </c>
       <c r="BR8">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS8">
-        <v>99.9</v>
+        <v>100.9</v>
       </c>
       <c r="BT8">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BU8">
-        <v>100.9</v>
-      </c>
-      <c r="BV8">
-        <v>100.6</v>
-      </c>
-      <c r="BW8">
         <v>101.1</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2735,22 +2688,16 @@
         <v>99.9</v>
       </c>
       <c r="BS9">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BT9">
-        <v>99.9</v>
+        <v>100.8</v>
       </c>
       <c r="BU9">
-        <v>100.5</v>
-      </c>
-      <c r="BV9">
-        <v>100.8</v>
-      </c>
-      <c r="BW9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2941,25 +2888,19 @@
         <v>99.5</v>
       </c>
       <c r="BR10">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="BS10">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="BT10">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="BU10">
-        <v>100.7</v>
-      </c>
-      <c r="BV10">
-        <v>100.8</v>
-      </c>
-      <c r="BW10">
         <v>100.9</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -3150,25 +3091,19 @@
         <v>100</v>
       </c>
       <c r="BR11">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="BS11">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="BT11">
-        <v>100.2</v>
+        <v>101.1</v>
       </c>
       <c r="BU11">
-        <v>100.5</v>
-      </c>
-      <c r="BV11">
-        <v>101.1</v>
-      </c>
-      <c r="BW11">
         <v>100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3362,22 +3297,16 @@
         <v>99.8</v>
       </c>
       <c r="BS12">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BT12">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BU12">
-        <v>100.6</v>
-      </c>
-      <c r="BV12">
-        <v>100.7</v>
-      </c>
-      <c r="BW12">
         <v>101.1</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3568,25 +3497,19 @@
         <v>99.9</v>
       </c>
       <c r="BR13">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="BS13">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BT13">
-        <v>100</v>
+        <v>100.9</v>
       </c>
       <c r="BU13">
-        <v>100.5</v>
-      </c>
-      <c r="BV13">
         <v>100.9</v>
       </c>
-      <c r="BW13">
-        <v>100.9</v>
-      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -3780,22 +3703,16 @@
         <v>99.9</v>
       </c>
       <c r="BS14">
-        <v>99.9</v>
+        <v>100.4</v>
       </c>
       <c r="BT14">
-        <v>99.9</v>
+        <v>101.1</v>
       </c>
       <c r="BU14">
-        <v>100.4</v>
-      </c>
-      <c r="BV14">
-        <v>101.1</v>
-      </c>
-      <c r="BW14">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -3986,25 +3903,19 @@
         <v>99.5</v>
       </c>
       <c r="BR15">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="BS15">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BT15">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BU15">
-        <v>100.6</v>
-      </c>
-      <c r="BV15">
-        <v>100.6</v>
-      </c>
-      <c r="BW15">
         <v>100.9</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4195,25 +4106,19 @@
         <v>99.9</v>
       </c>
       <c r="BR16">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="BS16">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BT16">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="BU16">
-        <v>100.5</v>
-      </c>
-      <c r="BV16">
-        <v>100.8</v>
-      </c>
-      <c r="BW16">
         <v>101.1</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -4404,25 +4309,19 @@
         <v>99.6</v>
       </c>
       <c r="BR17">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="BS17">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BT17">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BU17">
-        <v>100.5</v>
-      </c>
-      <c r="BV17">
-        <v>100.6</v>
-      </c>
-      <c r="BW17">
         <v>100.8</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -4613,25 +4512,19 @@
         <v>99.8</v>
       </c>
       <c r="BR18">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BS18">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="BT18">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="BU18">
-        <v>100.7</v>
-      </c>
-      <c r="BV18">
-        <v>100.9</v>
-      </c>
-      <c r="BW18">
         <v>101.3</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -4822,25 +4715,19 @@
         <v>99.7</v>
       </c>
       <c r="BR19">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BS19">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BT19">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BU19">
-        <v>100.6</v>
-      </c>
-      <c r="BV19">
-        <v>100.7</v>
-      </c>
-      <c r="BW19">
         <v>100.8</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -5031,25 +4918,19 @@
         <v>100</v>
       </c>
       <c r="BR20">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS20">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BT20">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BU20">
-        <v>100.1</v>
-      </c>
-      <c r="BV20">
-        <v>100.5</v>
-      </c>
-      <c r="BW20">
         <v>100.6</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5240,25 +5121,19 @@
         <v>99.9</v>
       </c>
       <c r="BR21">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="BS21">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="BT21">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BU21">
-        <v>100.5</v>
-      </c>
-      <c r="BV21">
-        <v>100.6</v>
-      </c>
-      <c r="BW21">
         <v>101.1</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -5449,25 +5324,19 @@
         <v>99.8</v>
       </c>
       <c r="BR22">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BS22">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="BT22">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="BU22">
-        <v>100.5</v>
-      </c>
-      <c r="BV22">
-        <v>100.6</v>
-      </c>
-      <c r="BW22">
         <v>101.1</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -5658,25 +5527,19 @@
         <v>99.8</v>
       </c>
       <c r="BR23">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="BS23">
-        <v>99.9</v>
+        <v>100.2</v>
       </c>
       <c r="BT23">
-        <v>99.9</v>
+        <v>100.8</v>
       </c>
       <c r="BU23">
-        <v>100.2</v>
-      </c>
-      <c r="BV23">
-        <v>100.8</v>
-      </c>
-      <c r="BW23">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -5816,7 +5679,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -6007,25 +5870,19 @@
         <v>99.7</v>
       </c>
       <c r="BR25">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="BS25">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BT25">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BU25">
-        <v>100.5</v>
-      </c>
-      <c r="BV25">
-        <v>100.6</v>
-      </c>
-      <c r="BW25">
         <v>101.1</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -6216,25 +6073,19 @@
         <v>100.3</v>
       </c>
       <c r="BR26">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="BS26">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="BT26">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="BU26">
         <v>100.5</v>
       </c>
-      <c r="BV26">
-        <v>100.7</v>
-      </c>
-      <c r="BW26">
-        <v>100.5</v>
-      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -6428,22 +6279,16 @@
         <v>99.8</v>
       </c>
       <c r="BS27">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="BT27">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BU27">
-        <v>100.2</v>
-      </c>
-      <c r="BV27">
-        <v>100.6</v>
-      </c>
-      <c r="BW27">
         <v>100.9</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -6634,25 +6479,19 @@
         <v>99.7</v>
       </c>
       <c r="BR28">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="BS28">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BT28">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BU28">
-        <v>100.1</v>
-      </c>
-      <c r="BV28">
-        <v>100.5</v>
-      </c>
-      <c r="BW28">
         <v>100.9</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -6846,22 +6685,16 @@
         <v>99.9</v>
       </c>
       <c r="BS29">
-        <v>99.9</v>
+        <v>100.3</v>
       </c>
       <c r="BT29">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BU29">
-        <v>100.3</v>
-      </c>
-      <c r="BV29">
-        <v>100.7</v>
-      </c>
-      <c r="BW29">
         <v>101.1</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -7052,25 +6885,19 @@
         <v>100.1</v>
       </c>
       <c r="BR30">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="BS30">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="BT30">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="BU30">
-        <v>100.5</v>
-      </c>
-      <c r="BV30">
-        <v>100.5</v>
-      </c>
-      <c r="BW30">
         <v>100.8</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -7261,25 +7088,19 @@
         <v>99.9</v>
       </c>
       <c r="BR31">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="BS31">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="BT31">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="BU31">
-        <v>100.4</v>
-      </c>
-      <c r="BV31">
-        <v>100.5</v>
-      </c>
-      <c r="BW31">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -7470,7 +7291,7 @@
         <v>100</v>
       </c>
       <c r="BR32">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BS32">
         <v>100.5</v>
@@ -7479,16 +7300,10 @@
         <v>100.5</v>
       </c>
       <c r="BU32">
-        <v>100.5</v>
-      </c>
-      <c r="BV32">
-        <v>100.5</v>
-      </c>
-      <c r="BW32">
         <v>101.1</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -7679,25 +7494,19 @@
         <v>99.8</v>
       </c>
       <c r="BR33">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="BS33">
-        <v>99.9</v>
+        <v>101</v>
       </c>
       <c r="BT33">
-        <v>99.9</v>
+        <v>101.4</v>
       </c>
       <c r="BU33">
-        <v>101</v>
-      </c>
-      <c r="BV33">
-        <v>101.4</v>
-      </c>
-      <c r="BW33">
         <v>101.1</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -7888,25 +7697,19 @@
         <v>100.4</v>
       </c>
       <c r="BR34">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="BS34">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="BT34">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
       <c r="BU34">
-        <v>100.4</v>
-      </c>
-      <c r="BV34">
-        <v>100.8</v>
-      </c>
-      <c r="BW34">
         <v>100.6</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -8097,25 +7900,19 @@
         <v>99.6</v>
       </c>
       <c r="BR35">
-        <v>99.6</v>
+        <v>100.2</v>
       </c>
       <c r="BS35">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="BT35">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="BU35">
-        <v>100.7</v>
-      </c>
-      <c r="BV35">
-        <v>100.7</v>
-      </c>
-      <c r="BW35">
         <v>100.3</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -8306,25 +8103,19 @@
         <v>99.6</v>
       </c>
       <c r="BR36">
-        <v>99.6</v>
+        <v>100.2</v>
       </c>
       <c r="BS36">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="BT36">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="BU36">
-        <v>100.7</v>
-      </c>
-      <c r="BV36">
-        <v>100.4</v>
-      </c>
-      <c r="BW36">
         <v>100.9</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -8518,22 +8309,16 @@
         <v>99.9</v>
       </c>
       <c r="BS37">
-        <v>99.9</v>
+        <v>100.4</v>
       </c>
       <c r="BT37">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BU37">
-        <v>100.4</v>
-      </c>
-      <c r="BV37">
-        <v>100.7</v>
-      </c>
-      <c r="BW37">
         <v>101.1</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -8724,25 +8509,19 @@
         <v>100.4</v>
       </c>
       <c r="BR38">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="BS38">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="BT38">
-        <v>99.7</v>
+        <v>102.1</v>
       </c>
       <c r="BU38">
-        <v>100.8</v>
-      </c>
-      <c r="BV38">
-        <v>102.1</v>
-      </c>
-      <c r="BW38">
         <v>101.4</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -8933,25 +8712,19 @@
         <v>100</v>
       </c>
       <c r="BR39">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS39">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BT39">
-        <v>99.9</v>
+        <v>101</v>
       </c>
       <c r="BU39">
-        <v>100.5</v>
-      </c>
-      <c r="BV39">
-        <v>101</v>
-      </c>
-      <c r="BW39">
         <v>101.7</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -9145,22 +8918,16 @@
         <v>100.1</v>
       </c>
       <c r="BS40">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="BT40">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BU40">
-        <v>100.5</v>
-      </c>
-      <c r="BV40">
-        <v>100.8</v>
-      </c>
-      <c r="BW40">
         <v>100.9</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -9351,25 +9118,19 @@
         <v>100</v>
       </c>
       <c r="BR41">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS41">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BT41">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BU41">
-        <v>100.7</v>
-      </c>
-      <c r="BV41">
-        <v>100.7</v>
-      </c>
-      <c r="BW41">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -9560,25 +9321,19 @@
         <v>99.9</v>
       </c>
       <c r="BR42">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BS42">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BT42">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BU42">
-        <v>100.8</v>
-      </c>
-      <c r="BV42">
-        <v>100.8</v>
-      </c>
-      <c r="BW42">
         <v>101.1</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -9769,25 +9524,19 @@
         <v>99.7</v>
       </c>
       <c r="BR43">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="BS43">
-        <v>100</v>
+        <v>100.9</v>
       </c>
       <c r="BT43">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU43">
-        <v>100.9</v>
-      </c>
-      <c r="BV43">
-        <v>101</v>
-      </c>
-      <c r="BW43">
         <v>100.8</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -9978,25 +9727,19 @@
         <v>99.9</v>
       </c>
       <c r="BR44">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BS44">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="BT44">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="BU44">
-        <v>100.6</v>
-      </c>
-      <c r="BV44">
-        <v>101</v>
-      </c>
-      <c r="BW44">
         <v>101.1</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -10187,25 +9930,19 @@
         <v>100</v>
       </c>
       <c r="BR45">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="BS45">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="BT45">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="BU45">
-        <v>100.5</v>
-      </c>
-      <c r="BV45">
-        <v>100.7</v>
-      </c>
-      <c r="BW45">
         <v>100.6</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -10396,25 +10133,19 @@
         <v>100</v>
       </c>
       <c r="BR46">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="BS46">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="BT46">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
       <c r="BU46">
-        <v>100.5</v>
-      </c>
-      <c r="BV46">
-        <v>100.8</v>
-      </c>
-      <c r="BW46">
         <v>100.8</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -10605,25 +10336,19 @@
         <v>99.9</v>
       </c>
       <c r="BR47">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="BS47">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="BT47">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="BU47">
-        <v>100.8</v>
-      </c>
-      <c r="BV47">
-        <v>100.7</v>
-      </c>
-      <c r="BW47">
         <v>100.7</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -10814,25 +10539,19 @@
         <v>100</v>
       </c>
       <c r="BR48">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="BS48">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="BT48">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BU48">
-        <v>100.4</v>
-      </c>
-      <c r="BV48">
-        <v>100.8</v>
-      </c>
-      <c r="BW48">
         <v>100.9</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -11023,25 +10742,19 @@
         <v>99.9</v>
       </c>
       <c r="BR49">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="BS49">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BT49">
-        <v>100</v>
+        <v>101.1</v>
       </c>
       <c r="BU49">
-        <v>100.6</v>
-      </c>
-      <c r="BV49">
-        <v>101.1</v>
-      </c>
-      <c r="BW49">
         <v>100.8</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -11232,25 +10945,19 @@
         <v>99.7</v>
       </c>
       <c r="BR50">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="BS50">
-        <v>99.9</v>
+        <v>100.8</v>
       </c>
       <c r="BT50">
-        <v>99.9</v>
+        <v>100.9</v>
       </c>
       <c r="BU50">
-        <v>100.8</v>
-      </c>
-      <c r="BV50">
-        <v>100.9</v>
-      </c>
-      <c r="BW50">
         <v>100.7</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -11441,25 +11148,19 @@
         <v>100.2</v>
       </c>
       <c r="BR51">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="BS51">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="BT51">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BU51">
-        <v>100.3</v>
-      </c>
-      <c r="BV51">
-        <v>100.7</v>
-      </c>
-      <c r="BW51">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -11650,25 +11351,19 @@
         <v>100</v>
       </c>
       <c r="BR52">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="BS52">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BT52">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BU52">
-        <v>100.5</v>
-      </c>
-      <c r="BV52">
-        <v>100.6</v>
-      </c>
-      <c r="BW52">
         <v>100.9</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -11859,25 +11554,19 @@
         <v>99.7</v>
       </c>
       <c r="BR53">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="BS53">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="BT53">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="BU53">
         <v>100.6</v>
       </c>
-      <c r="BV53">
-        <v>100.8</v>
-      </c>
-      <c r="BW53">
-        <v>100.6</v>
-      </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -12068,25 +11757,19 @@
         <v>100.3</v>
       </c>
       <c r="BR54">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="BS54">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BT54">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
       <c r="BU54">
-        <v>100.6</v>
-      </c>
-      <c r="BV54">
-        <v>100.8</v>
-      </c>
-      <c r="BW54">
         <v>100.9</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -12277,25 +11960,19 @@
         <v>100.1</v>
       </c>
       <c r="BR55">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="BS55">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="BT55">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BU55">
-        <v>100.7</v>
-      </c>
-      <c r="BV55">
         <v>101</v>
       </c>
-      <c r="BW55">
-        <v>101</v>
-      </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -12486,25 +12163,19 @@
         <v>100.1</v>
       </c>
       <c r="BR56">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="BS56">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BT56">
-        <v>100</v>
+        <v>100.9</v>
       </c>
       <c r="BU56">
-        <v>100.5</v>
-      </c>
-      <c r="BV56">
-        <v>100.9</v>
-      </c>
-      <c r="BW56">
         <v>100.7</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -12695,25 +12366,19 @@
         <v>99.7</v>
       </c>
       <c r="BR57">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BS57">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="BT57">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
       <c r="BU57">
-        <v>100.5</v>
-      </c>
-      <c r="BV57">
-        <v>100.9</v>
-      </c>
-      <c r="BW57">
         <v>101.1</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -12904,25 +12569,19 @@
         <v>100</v>
       </c>
       <c r="BR58">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="BS58">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BT58">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BU58">
-        <v>100.7</v>
-      </c>
-      <c r="BV58">
-        <v>100.7</v>
-      </c>
-      <c r="BW58">
         <v>100.9</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -13113,25 +12772,19 @@
         <v>100.2</v>
       </c>
       <c r="BR59">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="BS59">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="BT59">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="BU59">
-        <v>100.5</v>
-      </c>
-      <c r="BV59">
-        <v>101.1</v>
-      </c>
-      <c r="BW59">
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -13325,22 +12978,16 @@
         <v>100</v>
       </c>
       <c r="BS60">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="BT60">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="BU60">
-        <v>100.4</v>
-      </c>
-      <c r="BV60">
-        <v>100.7</v>
-      </c>
-      <c r="BW60">
         <v>100.8</v>
       </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -13531,25 +13178,19 @@
         <v>99.9</v>
       </c>
       <c r="BR61">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="BS61">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="BT61">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="BU61">
-        <v>100.2</v>
-      </c>
-      <c r="BV61">
-        <v>100.7</v>
-      </c>
-      <c r="BW61">
         <v>100.9</v>
       </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -13689,7 +13330,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -13829,7 +13470,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -14020,25 +13661,19 @@
         <v>100.1</v>
       </c>
       <c r="BR64">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="BS64">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="BT64">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
       <c r="BU64">
-        <v>100.4</v>
-      </c>
-      <c r="BV64">
-        <v>100.6</v>
-      </c>
-      <c r="BW64">
         <v>100.7</v>
       </c>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -14229,25 +13864,19 @@
         <v>100.4</v>
       </c>
       <c r="BR65">
-        <v>100.4</v>
+        <v>99.9</v>
       </c>
       <c r="BS65">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BT65">
-        <v>99.9</v>
+        <v>100.8</v>
       </c>
       <c r="BU65">
-        <v>100.1</v>
-      </c>
-      <c r="BV65">
-        <v>100.8</v>
-      </c>
-      <c r="BW65">
         <v>100.7</v>
       </c>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -14441,22 +14070,16 @@
         <v>100</v>
       </c>
       <c r="BS66">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="BT66">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BU66">
-        <v>100.3</v>
-      </c>
-      <c r="BV66">
-        <v>100.6</v>
-      </c>
-      <c r="BW66">
         <v>100.8</v>
       </c>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -14647,25 +14270,19 @@
         <v>99.8</v>
       </c>
       <c r="BR67">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="BS67">
-        <v>99.9</v>
+        <v>100.4</v>
       </c>
       <c r="BT67">
-        <v>99.9</v>
+        <v>100.6</v>
       </c>
       <c r="BU67">
-        <v>100.4</v>
-      </c>
-      <c r="BV67">
-        <v>100.6</v>
-      </c>
-      <c r="BW67">
         <v>100.9</v>
       </c>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -14856,25 +14473,19 @@
         <v>100.2</v>
       </c>
       <c r="BR68">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="BS68">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="BT68">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="BU68">
-        <v>100.4</v>
-      </c>
-      <c r="BV68">
-        <v>100.9</v>
-      </c>
-      <c r="BW68">
         <v>100.8</v>
       </c>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -15065,25 +14676,19 @@
         <v>100.1</v>
       </c>
       <c r="BR69">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="BS69">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="BT69">
-        <v>99.7</v>
+        <v>101.5</v>
       </c>
       <c r="BU69">
-        <v>100.5</v>
-      </c>
-      <c r="BV69">
-        <v>101.5</v>
-      </c>
-      <c r="BW69">
         <v>100.4</v>
       </c>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -15274,25 +14879,19 @@
         <v>100.2</v>
       </c>
       <c r="BR70">
-        <v>100.2</v>
+        <v>99.4</v>
       </c>
       <c r="BS70">
-        <v>99.4</v>
+        <v>100.4</v>
       </c>
       <c r="BT70">
-        <v>99.4</v>
+        <v>100.6</v>
       </c>
       <c r="BU70">
-        <v>100.4</v>
-      </c>
-      <c r="BV70">
-        <v>100.6</v>
-      </c>
-      <c r="BW70">
         <v>100.6</v>
       </c>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -15483,25 +15082,19 @@
         <v>99.8</v>
       </c>
       <c r="BR71">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="BS71">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="BT71">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="BU71">
-        <v>100.4</v>
-      </c>
-      <c r="BV71">
-        <v>101</v>
-      </c>
-      <c r="BW71">
         <v>100.9</v>
       </c>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -15692,25 +15285,19 @@
         <v>100.3</v>
       </c>
       <c r="BR72">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="BS72">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="BT72">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="BU72">
-        <v>100.6</v>
-      </c>
-      <c r="BV72">
-        <v>100.8</v>
-      </c>
-      <c r="BW72">
         <v>100.8</v>
       </c>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -15901,25 +15488,19 @@
         <v>99.8</v>
       </c>
       <c r="BR73">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="BS73">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="BT73">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="BU73">
-        <v>100.4</v>
-      </c>
-      <c r="BV73">
-        <v>100.6</v>
-      </c>
-      <c r="BW73">
         <v>100.7</v>
       </c>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -16110,25 +15691,19 @@
         <v>100</v>
       </c>
       <c r="BR74">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="BS74">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="BT74">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="BU74">
-        <v>100.6</v>
-      </c>
-      <c r="BV74">
-        <v>100.9</v>
-      </c>
-      <c r="BW74">
         <v>100.1</v>
       </c>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -16319,25 +15894,19 @@
         <v>100.1</v>
       </c>
       <c r="BR75">
-        <v>100.1</v>
+        <v>99.9</v>
       </c>
       <c r="BS75">
-        <v>99.9</v>
+        <v>100.7</v>
       </c>
       <c r="BT75">
-        <v>99.9</v>
+        <v>100.9</v>
       </c>
       <c r="BU75">
-        <v>100.7</v>
-      </c>
-      <c r="BV75">
-        <v>100.9</v>
-      </c>
-      <c r="BW75">
         <v>100.8</v>
       </c>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -16528,25 +16097,19 @@
         <v>99.7</v>
       </c>
       <c r="BR76">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="BS76">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="BT76">
         <v>100.3</v>
       </c>
       <c r="BU76">
-        <v>100.2</v>
-      </c>
-      <c r="BV76">
-        <v>100.3</v>
-      </c>
-      <c r="BW76">
         <v>100.7</v>
       </c>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -16737,25 +16300,19 @@
         <v>100.2</v>
       </c>
       <c r="BR77">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="BS77">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="BT77">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="BU77">
-        <v>100.2</v>
-      </c>
-      <c r="BV77">
-        <v>100.5</v>
-      </c>
-      <c r="BW77">
         <v>100.7</v>
       </c>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -16946,25 +16503,19 @@
         <v>100.4</v>
       </c>
       <c r="BR78">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="BS78">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="BT78">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="BU78">
-        <v>100.3</v>
-      </c>
-      <c r="BV78">
-        <v>100.1</v>
-      </c>
-      <c r="BW78">
         <v>100.6</v>
       </c>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -17155,25 +16706,19 @@
         <v>100</v>
       </c>
       <c r="BR79">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="BS79">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="BT79">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="BU79">
-        <v>100.5</v>
-      </c>
-      <c r="BV79">
-        <v>100.5</v>
-      </c>
-      <c r="BW79">
         <v>100.9</v>
       </c>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -17364,25 +16909,19 @@
         <v>100</v>
       </c>
       <c r="BR80">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="BS80">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="BT80">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="BU80">
-        <v>100.6</v>
-      </c>
-      <c r="BV80">
-        <v>100.5</v>
-      </c>
-      <c r="BW80">
         <v>100.8</v>
       </c>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -17573,25 +17112,19 @@
         <v>100.4</v>
       </c>
       <c r="BR81">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="BS81">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="BT81">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="BU81">
-        <v>100.4</v>
-      </c>
-      <c r="BV81">
-        <v>100.5</v>
-      </c>
-      <c r="BW81">
         <v>101.7</v>
       </c>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -17782,25 +17315,19 @@
         <v>99.6</v>
       </c>
       <c r="BR82">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="BS82">
         <v>99.9</v>
       </c>
       <c r="BT82">
-        <v>99.9</v>
+        <v>100.5</v>
       </c>
       <c r="BU82">
-        <v>99.9</v>
-      </c>
-      <c r="BV82">
-        <v>100.5</v>
-      </c>
-      <c r="BW82">
         <v>101.5</v>
       </c>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -17991,25 +17518,19 @@
         <v>99.9</v>
       </c>
       <c r="BR83">
-        <v>99.9</v>
+        <v>100.3</v>
       </c>
       <c r="BS83">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="BT83">
-        <v>100.3</v>
+        <v>101.4</v>
       </c>
       <c r="BU83">
-        <v>100.4</v>
-      </c>
-      <c r="BV83">
-        <v>101.4</v>
-      </c>
-      <c r="BW83">
         <v>100.3</v>
       </c>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -18149,7 +17670,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>149</v>
       </c>
